--- a/src/WindowsApplication/WindowsApplication/bin/Debug/BXR6.xlsx
+++ b/src/WindowsApplication/WindowsApplication/bin/Debug/BXR6.xlsx
@@ -1,17 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -221,14 +217,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -563,9 +559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -2747,56 +2745,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/WindowsApplication/WindowsApplication/bin/Debug/BXR6.xlsx
+++ b/src/WindowsApplication/WindowsApplication/bin/Debug/BXR6.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\School\WinFormExcelDataProcessApplication\src\WindowsApplication\WindowsApplication\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8055"/>
   </bookViews>
@@ -212,19 +217,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,7 +263,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -266,12 +271,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -313,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,7 +356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,12 +568,12 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -597,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -629,7 +637,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -661,7 +669,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -693,7 +701,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -725,7 +733,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -757,7 +765,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -789,7 +797,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -821,7 +829,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -853,7 +861,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -885,7 +893,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -917,7 +925,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -949,7 +957,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -981,7 +989,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1045,7 +1053,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1109,7 +1117,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>26.64</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1269,7 +1277,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1397,7 +1405,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1493,7 +1501,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1525,7 +1533,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1589,7 +1597,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1685,7 +1693,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1749,7 +1757,7 @@
         <v>46.08</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1813,7 +1821,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1845,7 +1853,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1909,7 +1917,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2005,7 +2013,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2069,7 +2077,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2133,7 +2141,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2229,7 +2237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2261,7 +2269,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>19.21</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>98.19</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2581,7 +2589,7 @@
         <v>73.14</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2677,7 +2685,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>

--- a/src/WindowsApplication/WindowsApplication/bin/Debug/BXR6.xlsx
+++ b/src/WindowsApplication/WindowsApplication/bin/Debug/BXR6.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\School\WinFormExcelDataProcessApplication\src\WindowsApplication\WindowsApplication\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8055"/>
   </bookViews>
@@ -217,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,9 +266,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -321,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
